--- a/va_facility_data_2025-02-20/Lima VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lima%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lima VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lima%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R30682b0f95e84f3c9651fc2affe14ee7"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8c0b148d6e2d4717a6d4434e7f070f20"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R490cab571aab402fab3dbdec5fc6b7ff"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R316257c1b2d14b28aa9b1186f5733c88"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rdd336ef140134349a42fbfc337d28a40"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rcf00acc736b54ed59ba6ef8e704df3ae"/>
   </x:sheets>
 </x:workbook>
 </file>
